--- a/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>ZIMV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +709,32 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>235600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>261600</v>
+      </c>
+      <c r="F8" s="3">
         <v>753000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>274900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>637500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,26 +744,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>125900</v>
+      </c>
+      <c r="F9" s="3">
         <v>259900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>92100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>220800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,26 +779,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>321400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>135700</v>
+      </c>
+      <c r="F10" s="3">
         <v>493100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>182800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>416700</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +814,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,26 +833,28 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>17400</v>
+      </c>
+      <c r="F12" s="3">
         <v>43900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>13100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>36100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +864,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,26 +899,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F14" s="3">
         <v>14300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>153200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -895,26 +934,32 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F15" s="3">
         <v>65000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>22100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>63400</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +969,14 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +985,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-268200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>326900</v>
+      </c>
+      <c r="F17" s="3">
         <v>788200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>270300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>864700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,26 +1016,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>503800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-227200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1051,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,26 +1070,28 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-536200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,26 +1101,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F21" s="3">
         <v>60100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>39400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-126100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,26 +1136,32 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,26 +1171,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-35900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>5200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-226500</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,26 +1206,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-31300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-11000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,8 +1241,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1276,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-34600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>36500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-215500</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1311,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-34600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>36500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-215600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1346,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1381,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1416,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1451,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,26 +1486,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>536200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,26 +1521,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-34600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>36500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-215600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1556,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1591,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-34600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>36500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-215600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1626,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1666,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1685,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1700,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>104300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100400</v>
+      </c>
+      <c r="F41" s="3">
         <v>24100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1731,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,20 +1766,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
+        <v>164200</v>
+      </c>
+      <c r="F43" s="3">
         <v>170200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,20 +1801,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>239300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>246800</v>
+      </c>
+      <c r="F44" s="3">
         <v>274700</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1645,20 +1836,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F45" s="3">
         <v>22700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,20 +1871,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>549100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>536800</v>
+      </c>
+      <c r="F46" s="3">
         <v>491700</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,8 +1906,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1732,20 +1941,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
+        <v>180200</v>
+      </c>
+      <c r="F48" s="3">
         <v>180700</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,20 +1976,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>999000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1066700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +2011,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2046,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +2081,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>75700</v>
+      </c>
+      <c r="F52" s="3">
         <v>69800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2116,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2151,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1774300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1826700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1808900</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2186,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2205,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,20 +2220,22 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45000</v>
+      </c>
+      <c r="F57" s="3">
         <v>40500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,20 +2251,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>33000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,20 +2286,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>139600</v>
+      </c>
+      <c r="F59" s="3">
         <v>128200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,20 +2321,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>219500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>184600</v>
+      </c>
+      <c r="F60" s="3">
         <v>201700</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,20 +2356,26 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>4900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2106,20 +2391,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>190700</v>
+      </c>
+      <c r="F62" s="3">
         <v>200000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2426,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2461,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2496,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2531,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>961800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>375300</v>
+      </c>
+      <c r="F66" s="3">
         <v>406600</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2566,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2585,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2616,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2651,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2686,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,8 +2721,14 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2409,8 +2756,14 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2791,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2826,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,20 +2861,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1451400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1402300</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2896,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2931,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2971,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-34600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>36500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-215600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +3006,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,26 +3025,28 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F83" s="3">
         <v>95700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>34100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>100200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +3056,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3091,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3126,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3161,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3196,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,26 +3231,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F89" s="3">
         <v>42900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>91700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3266,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,26 +3285,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3316,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3351,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,26 +3386,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-37900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-20100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-29400</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3421,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3440,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3471,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3506,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3541,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,26 +3576,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>79800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-74300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>27800</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,26 +3611,32 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,26 +3646,32 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>76300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-8200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3679,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>ZIMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,45 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,29 +716,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>234600</v>
+      </c>
+      <c r="E8" s="3">
         <v>235600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>261600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>753000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>274900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>637500</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -750,29 +754,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>-85800</v>
+        <v>81100</v>
       </c>
       <c r="E9" s="3">
+        <v>85800</v>
+      </c>
+      <c r="F9" s="3">
         <v>125900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>259900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>92100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>220800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,29 +792,32 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>321400</v>
+        <v>153500</v>
       </c>
       <c r="E10" s="3">
+        <v>149800</v>
+      </c>
+      <c r="F10" s="3">
         <v>135700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>493100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>182800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>416700</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -820,8 +830,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,29 +848,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>-17700</v>
+        <v>15300</v>
       </c>
       <c r="E12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F12" s="3">
         <v>17400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>43900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>36100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -870,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,29 +922,32 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-9700</v>
+        <v>13800</v>
       </c>
       <c r="E14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F14" s="3">
         <v>13100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>153200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -940,29 +960,32 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-20900</v>
+        <v>19900</v>
       </c>
       <c r="E15" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F15" s="3">
         <v>21200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>65000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>22100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>63400</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,8 +998,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,29 +1013,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-268200</v>
+        <v>256100</v>
       </c>
       <c r="E17" s="3">
+        <v>268200</v>
+      </c>
+      <c r="F17" s="3">
         <v>326900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>788200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>270300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>864700</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,29 +1049,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>503800</v>
+        <v>-21500</v>
       </c>
       <c r="E18" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-65300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-35200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-227200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1087,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,29 +1105,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-536200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,29 +1141,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-31400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>60100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>39400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-126100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,29 +1179,32 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1177,29 +1217,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-33100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-226500</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1212,29 +1255,32 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>-17600</v>
       </c>
       <c r="E24" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-4700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-31300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1247,8 +1293,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,29 +1331,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-8700</v>
       </c>
       <c r="E26" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-60700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-215500</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,29 +1369,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-8700</v>
       </c>
       <c r="E27" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-60700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-215600</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,8 +1407,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,8 +1483,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,29 +1559,32 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>536200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,29 +1597,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-8700</v>
       </c>
       <c r="E33" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-60700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-215600</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1635,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,29 +1673,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-8700</v>
       </c>
       <c r="E35" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-60700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-215600</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1632,34 +1711,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +1754,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,23 +1788,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>130100</v>
+      </c>
+      <c r="E41" s="3">
         <v>104300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +1824,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1772,23 +1862,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>166700</v>
       </c>
       <c r="E43" s="3">
+        <v>156200</v>
+      </c>
+      <c r="F43" s="3">
         <v>164200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>170200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1807,23 +1900,26 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E44" s="3">
         <v>239300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>246800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>274700</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,23 +1938,26 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>49400</v>
+      </c>
+      <c r="F45" s="3">
         <v>25400</v>
       </c>
-      <c r="E45" s="3">
-        <v>25400</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22700</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,23 +1976,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>573900</v>
+      </c>
+      <c r="E46" s="3">
         <v>549100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>536800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>491700</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1912,8 +2014,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1947,23 +2052,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>162900</v>
       </c>
       <c r="E48" s="3">
+        <v>170500</v>
+      </c>
+      <c r="F48" s="3">
         <v>180200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,23 +2090,26 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>944600</v>
+      </c>
+      <c r="E49" s="3">
         <v>999000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1034000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1066700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2128,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,23 +2204,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E52" s="3">
         <v>55600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>69800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2242,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,23 +2280,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1732600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1774300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1826700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1808900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2318,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,23 +2352,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E57" s="3">
         <v>39100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,23 +2388,26 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>33000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2292,23 +2426,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>140200</v>
+        <v>189700</v>
       </c>
       <c r="E59" s="3">
+        <v>166400</v>
+      </c>
+      <c r="F59" s="3">
         <v>139600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2327,23 +2464,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E60" s="3">
         <v>219500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>184600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>201700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,23 +2502,26 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>538700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>541900</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>4900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2397,23 +2540,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>182600</v>
+      </c>
+      <c r="E62" s="3">
         <v>200400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>190700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,8 +2578,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,23 +2692,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>968000</v>
+      </c>
+      <c r="E66" s="3">
         <v>961800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>375300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>406600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2572,8 +2730,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2692,8 +2860,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,31 +2898,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>-18000</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-9300</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -2762,8 +2936,11 @@
       <c r="M72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,23 +3050,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>764600</v>
       </c>
       <c r="E76" s="3">
+        <v>812500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1451400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1402300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2902,8 +3088,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,34 +3126,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2977,29 +3169,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-8700</v>
       </c>
       <c r="E81" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-60700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-215600</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3012,8 +3207,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,29 +3225,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E83" s="3">
         <v>32600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>95700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3062,8 +3261,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,29 +3451,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>40600</v>
       </c>
       <c r="E89" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F89" s="3">
         <v>21400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>42900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>91700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3489,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,29 +3507,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3322,8 +3543,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,29 +3619,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3427,8 +3657,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,8 +3675,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3451,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-540600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3477,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,29 +3825,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>22200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>79800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-74300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27800</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3617,29 +3863,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,29 +3901,32 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>25800</v>
       </c>
       <c r="E102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F102" s="3">
         <v>76300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8200</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3685,6 +3937,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>ZIMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,48 +665,49 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,32 +720,35 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>214600</v>
+      </c>
+      <c r="E8" s="3">
         <v>234600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>235600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>261600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>753000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>274900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>637500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,32 +761,35 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E9" s="3">
         <v>81100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>85800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>125900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>259900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>92100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>220800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,32 +802,35 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E10" s="3">
         <v>153500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>149800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>135700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>493100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>182800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>416700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,8 +843,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,32 +862,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E12" s="3">
         <v>15300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>43900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>36100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -887,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,32 +942,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E14" s="3">
         <v>13800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>153200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,32 +983,35 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E15" s="3">
         <v>19900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>21200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>65000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>22100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>63400</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1001,8 +1024,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,32 +1040,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>231300</v>
+      </c>
+      <c r="E17" s="3">
         <v>256100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>268200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>326900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>788200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>270300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>864700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,32 +1079,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-65300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-35200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-227200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1120,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,32 +1139,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,32 +1178,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E21" s="3">
         <v>8300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-31400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>60100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>39400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-126100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,32 +1219,35 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,32 +1260,35 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-33100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-65400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-226500</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,32 +1301,35 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-31300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1342,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,32 +1383,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-60700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-215500</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,32 +1424,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-60700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-215600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1410,8 +1465,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,32 +1629,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1600,32 +1670,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-60700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-215600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1638,8 +1711,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,32 +1752,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-60700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-215600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,37 +1793,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1757,8 +1839,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,26 +1875,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E41" s="3">
         <v>130100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>104300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1827,8 +1914,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,26 +1955,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>166700</v>
+        <v>172700</v>
       </c>
       <c r="E43" s="3">
-        <v>156200</v>
+        <v>188400</v>
       </c>
       <c r="F43" s="3">
+        <v>180100</v>
+      </c>
+      <c r="G43" s="3">
         <v>164200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>170200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1903,26 +1996,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E44" s="3">
         <v>226500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>239300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>246800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>274700</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,26 +2037,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50600</v>
+        <v>33300</v>
       </c>
       <c r="E45" s="3">
-        <v>49400</v>
+        <v>28900</v>
       </c>
       <c r="F45" s="3">
         <v>25400</v>
       </c>
       <c r="G45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="H45" s="3">
         <v>22700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1979,26 +2078,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>546200</v>
+      </c>
+      <c r="E46" s="3">
         <v>573900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>549100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>536800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>491700</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2119,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2055,26 +2160,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E48" s="3">
         <v>162900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>170500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>180700</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,26 +2201,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>893900</v>
+      </c>
+      <c r="E49" s="3">
         <v>944600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>999000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1034000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1066700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2131,8 +2242,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,26 +2324,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E52" s="3">
         <v>51200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>69800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,26 +2406,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1629400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1732600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1774300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1826700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1808900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,26 +2483,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E57" s="3">
         <v>43000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>39100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,8 +2522,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2403,14 +2537,14 @@
         <v>14000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>33000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,26 +2563,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E59" s="3">
         <v>189700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>166400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>139600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>128200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2467,26 +2604,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>217500</v>
+      </c>
+      <c r="E60" s="3">
         <v>246800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>219500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>184600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>201700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2505,26 +2645,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>535500</v>
+      </c>
+      <c r="E61" s="3">
         <v>538700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>541900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>4900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2543,26 +2686,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E62" s="3">
         <v>182600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>190700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,26 +2850,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>895600</v>
+      </c>
+      <c r="E66" s="3">
         <v>968000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>961800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>375300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>406600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2863,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,20 +3072,23 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,8 +3101,8 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -2939,8 +3113,11 @@
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,26 +3236,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>764600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>812500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1451400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1402300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3091,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,37 +3318,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3172,32 +3364,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-60700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-215600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,8 +3405,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,32 +3424,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E83" s="3">
         <v>29700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>95700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3264,8 +3463,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,32 +3668,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>40600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>42900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>91700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3492,8 +3709,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,32 +3728,33 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3546,8 +3767,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,32 +3849,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-37900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3890,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3685,11 +3919,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-540600</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,32 +4071,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>79800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-74300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27800</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,32 +4112,35 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3904,32 +4153,35 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>25800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>76300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3940,6 +4192,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>ZIMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,52 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,35 +723,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>229100</v>
+      </c>
+      <c r="E8" s="3">
         <v>214600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>234600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>235600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>261600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>753000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>274900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>637500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -764,35 +767,38 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E9" s="3">
         <v>59600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>81100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>85800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>125900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>259900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>92100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>220800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -805,35 +811,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E10" s="3">
         <v>155000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>153500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>149800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>135700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>493100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>182800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>416700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,8 +855,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,35 +875,36 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E12" s="3">
         <v>14500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>43900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>36100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,8 +917,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,35 +961,38 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E14" s="3">
         <v>8400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>153200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -986,35 +1005,38 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E15" s="3">
         <v>19400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>65000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>22100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>63400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1049,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,35 +1066,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>253500</v>
+      </c>
+      <c r="E17" s="3">
         <v>231300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>256100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>268200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>326900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>788200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>270300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>864700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1082,35 +1108,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-21500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-65300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-227200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1152,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,35 +1172,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1181,35 +1214,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E21" s="3">
         <v>14100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-31400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>39400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-126100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,35 +1258,38 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,35 +1302,38 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-33100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-65400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-226500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,35 +1346,38 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-23100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-31300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,8 +1390,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,35 +1434,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-30300</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-60700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-215500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1427,35 +1478,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-30300</v>
       </c>
       <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-60700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-215600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1468,8 +1522,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1566,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1610,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1654,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,35 +1698,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1673,35 +1742,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-30300</v>
       </c>
       <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-60700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-215600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1786,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,35 +1830,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-30300</v>
       </c>
       <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-60700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-215600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1796,40 +1874,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,8 +1923,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1943,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,29 +1961,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E41" s="3">
         <v>116000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>130100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>104300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2003,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,29 +2047,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>177400</v>
+      </c>
+      <c r="E43" s="3">
         <v>172700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>188400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>180100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>164200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>170200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,29 +2091,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>233900</v>
+      </c>
+      <c r="E44" s="3">
         <v>224200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>226500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>239300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>246800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>274700</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,29 +2135,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E45" s="3">
         <v>33300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>25400</v>
       </c>
       <c r="G45" s="3">
         <v>25400</v>
       </c>
       <c r="H45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I45" s="3">
         <v>22700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,29 +2179,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>537900</v>
+      </c>
+      <c r="E46" s="3">
         <v>546200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>573900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>549100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>536800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>491700</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2223,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2163,29 +2267,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E48" s="3">
         <v>150300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>162900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>170500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>180200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>180700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,29 +2311,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>915000</v>
+      </c>
+      <c r="E49" s="3">
         <v>893900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>944600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>999000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1034000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1066700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2355,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2399,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,29 +2443,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E52" s="3">
         <v>38900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>69800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2487,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,29 +2531,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1642100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1629400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1732600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1774300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1826700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1808900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2575,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2595,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,29 +2613,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E57" s="3">
         <v>41100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>39100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,13 +2655,16 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>14000</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>14000</v>
@@ -2540,14 +2673,14 @@
         <v>14000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>33000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,29 +2699,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E59" s="3">
         <v>162400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>189700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>166400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>139600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>128200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,29 +2743,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E60" s="3">
         <v>217500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>246800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>219500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>184600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>201700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,29 +2787,32 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>532200</v>
+      </c>
+      <c r="E61" s="3">
         <v>535500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>538700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>541900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>4900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2689,29 +2831,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>133900</v>
+      </c>
+      <c r="E62" s="3">
         <v>142600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>182600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>190700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2875,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2919,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2963,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,29 +3007,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>883500</v>
+      </c>
+      <c r="E66" s="3">
         <v>895600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>968000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>961800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>375300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>406600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3051,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3071,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3113,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3157,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3034,8 +3201,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,23 +3245,26 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3104,8 +3277,8 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -3116,8 +3289,11 @@
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3333,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3377,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,29 +3421,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>758600</v>
       </c>
       <c r="E76" s="3">
+        <v>733800</v>
+      </c>
+      <c r="F76" s="3">
         <v>764600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>812500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1451400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1402300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3465,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,40 +3509,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3367,35 +3558,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-30300</v>
       </c>
       <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-60700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-215600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3408,8 +3602,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,35 +3622,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E83" s="3">
         <v>30200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>32600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>95700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3466,8 +3664,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3708,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3752,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3796,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3840,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,35 +3884,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E89" s="3">
         <v>2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>42900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>91700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3712,8 +3928,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,35 +3948,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3770,8 +3990,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4034,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,35 +4078,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-37900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3893,8 +4122,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4142,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3922,11 +4155,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-540600</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3951,8 +4184,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4228,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4272,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,35 +4316,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>79800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-74300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>27800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4115,35 +4360,38 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4156,35 +4404,38 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-26400</v>
       </c>
       <c r="E102" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F102" s="3">
         <v>25800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>76300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,6 +4446,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
   <si>
     <t>ZIMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,56 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,38 +727,41 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E8" s="3">
         <v>229100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>214600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>234600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>235600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>261600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>753000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>274900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>637500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -770,38 +774,41 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E9" s="3">
         <v>74300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>81100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>85800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>125900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>259900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>92100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>220800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -814,38 +821,41 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E10" s="3">
         <v>154800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>155000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>153500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>149800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>135700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>493100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>182800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>416700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,8 +868,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,38 +889,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E12" s="3">
         <v>15300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>43900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>36100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -920,8 +934,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,38 +981,41 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E14" s="3">
         <v>8900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>153200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1008,38 +1028,41 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E15" s="3">
         <v>20700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>65000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>63400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,8 +1075,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,38 +1093,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E17" s="3">
         <v>253500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>231300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>256100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>268200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>326900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>788200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>270300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>864700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,38 +1138,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-65300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-227200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,8 +1185,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,38 +1206,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1217,38 +1251,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E21" s="3">
         <v>8500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-31400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>39400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-126100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,38 +1298,41 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>6400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,38 +1345,41 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-33100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-65400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-226500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,38 +1392,41 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-23100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-17600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-31300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-11000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,8 +1439,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,38 +1486,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-60700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-215500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1481,38 +1533,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-60700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-215600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1525,8 +1580,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1627,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1613,8 +1674,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1721,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,38 +1768,41 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1745,38 +1815,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-60700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-215600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1789,8 +1862,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,38 +1909,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-60700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-215600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,43 +1956,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1926,8 +2008,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2029,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,32 +2048,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E41" s="3">
         <v>89600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>116000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>130100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>104300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2006,8 +2093,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,32 +2140,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E43" s="3">
         <v>177400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>172700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>188400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>180100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>164200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>170200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,32 +2187,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E44" s="3">
         <v>233900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>224200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>226500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>239300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>246800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>274700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,32 +2234,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E45" s="3">
         <v>37000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>33300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>25400</v>
       </c>
       <c r="H45" s="3">
         <v>25400</v>
       </c>
       <c r="I45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J45" s="3">
         <v>22700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,32 +2281,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>504200</v>
+      </c>
+      <c r="E46" s="3">
         <v>537900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>546200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>573900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>549100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>536800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>491700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,8 +2328,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2270,32 +2375,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E48" s="3">
         <v>148400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>150300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>162900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>170500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>180200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>180700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2314,32 +2422,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>905200</v>
+      </c>
+      <c r="E49" s="3">
         <v>915000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>893900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>944600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>999000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1034000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1066700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2358,8 +2469,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2516,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,32 +2563,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E52" s="3">
         <v>40800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>51200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>69800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2610,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,32 +2657,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1588100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1642100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1629400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1732600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1774300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1826700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1808900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2704,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2725,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,32 +2744,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E57" s="3">
         <v>44000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>43000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2658,16 +2789,19 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>14000</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>14000</v>
@@ -2676,14 +2810,14 @@
         <v>14000</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>33000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,32 +2836,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>143900</v>
+      </c>
+      <c r="E59" s="3">
         <v>173300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>162400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>189700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>166400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>139600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>128200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2746,32 +2883,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>196500</v>
+      </c>
+      <c r="E60" s="3">
         <v>217300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>217500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>246800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>219500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>184600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>201700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,32 +2930,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>522000</v>
+      </c>
+      <c r="E61" s="3">
         <v>532200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>535500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>538700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>541900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>4900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2834,32 +2977,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E62" s="3">
         <v>133900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>142600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>182600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>200400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>190700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3024,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3071,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3118,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,32 +3165,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>844500</v>
+      </c>
+      <c r="E66" s="3">
         <v>883500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>895600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>968000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>961800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>375300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>406600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3212,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3233,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3278,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,8 +3325,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3204,8 +3372,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,26 +3419,29 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-18000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3454,8 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -3292,8 +3466,11 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3513,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3560,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,32 +3607,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>743600</v>
+      </c>
+      <c r="E76" s="3">
         <v>758600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>733800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>764600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>812500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1451400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1402300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3654,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,43 +3701,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3561,38 +3753,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-60700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-215600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3605,8 +3800,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,38 +3821,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E83" s="3">
         <v>30300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>32600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>95700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3667,8 +3866,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +3913,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +3960,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4007,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4054,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,38 +4101,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>42900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>91700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3931,8 +4148,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,38 +4169,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3600</v>
+        <v>-5400</v>
       </c>
       <c r="F91" s="3">
-        <v>-4000</v>
+        <v>-8900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2000</v>
+        <v>-6200</v>
       </c>
       <c r="H91" s="3">
-        <v>-13800</v>
+        <v>-6100</v>
       </c>
       <c r="I91" s="3">
-        <v>-14400</v>
+        <v>-22400</v>
       </c>
       <c r="J91" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3993,8 +4214,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4261,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,38 +4308,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4125,8 +4355,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,8 +4376,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4158,11 +4392,11 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-540600</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4187,8 +4421,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4468,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4515,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,38 +4562,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>79800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-74300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4363,38 +4609,41 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>4600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4407,38 +4656,41 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>76300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4449,6 +4701,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>ZIMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,60 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,41 +731,44 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E8" s="3">
         <v>225400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>229100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>214600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>234600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>235600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>261600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>753000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>274900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>637500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,41 +781,44 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E9" s="3">
         <v>71000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>81100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>85800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>125900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>259900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>92100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>220800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,41 +831,44 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E10" s="3">
         <v>154400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>154800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>155000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>153500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>149800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>135700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>493100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>416700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -871,8 +881,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,41 +903,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E12" s="3">
         <v>15400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>15300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>43900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +951,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -984,41 +1001,44 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E14" s="3">
         <v>6700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>153200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1031,41 +1051,44 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E15" s="3">
         <v>20500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>65000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>63400</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1078,8 +1101,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1094,41 +1120,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>246700</v>
+      </c>
+      <c r="E17" s="3">
         <v>241600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>253500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>231300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>256100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>268200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>326900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>788200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>270300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>864700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1141,41 +1168,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-16200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-24400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-65300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-227200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1188,8 +1218,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1207,41 +1240,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,41 +1288,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E21" s="3">
         <v>15600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-31400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>39400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-126100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,8 +1338,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,32 +1350,32 @@
         <v>9000</v>
       </c>
       <c r="E22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,41 +1388,44 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-33100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-65400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-226500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,41 +1438,44 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-23100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-17600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-31300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-11000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,8 +1488,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1489,41 +1538,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-60700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-215500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,41 +1588,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-60700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-215600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,8 +1638,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1630,8 +1688,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1677,8 +1738,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1724,8 +1788,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1771,41 +1838,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1818,41 +1888,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-60700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-215600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1865,8 +1938,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1912,41 +1988,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-60700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-215600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,46 +2038,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2093,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2030,8 +2115,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2049,35 +2135,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E41" s="3">
         <v>66400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>116000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>130100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>104300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2183,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2143,35 +2233,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>168100</v>
+      </c>
+      <c r="E43" s="3">
         <v>175000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>177400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>172700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>188400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>180100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>164200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>170200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,35 +2283,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E44" s="3">
         <v>231100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>233900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>224200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>226500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>239300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>246800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>274700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,35 +2333,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E45" s="3">
         <v>31700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>25400</v>
       </c>
       <c r="I45" s="3">
         <v>25400</v>
       </c>
       <c r="J45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K45" s="3">
         <v>22700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,35 +2383,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>507400</v>
+      </c>
+      <c r="E46" s="3">
         <v>504200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>537900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>546200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>573900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>549100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>536800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>491700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,8 +2433,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2378,35 +2483,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E48" s="3">
         <v>139300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>148400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>150300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>162900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>170500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>180200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>180700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,35 +2533,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>885800</v>
+      </c>
+      <c r="E49" s="3">
         <v>905200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>915000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>893900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>944600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>999000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1034000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1066700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,8 +2583,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2519,8 +2633,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2566,35 +2683,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E52" s="3">
         <v>39400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>40800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>51200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>69800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,8 +2733,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2660,35 +2783,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1560500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1588100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1642100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1629400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1732600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1774300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1826700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1808900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2833,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2726,8 +2855,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2745,35 +2875,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E57" s="3">
         <v>52600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>44000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2923,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2803,8 +2937,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>14000</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>14000</v>
@@ -2813,14 +2947,14 @@
         <v>14000</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>33000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,35 +2973,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E59" s="3">
         <v>143900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>173300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>162400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>189700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>166400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>139600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>128200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2886,35 +3023,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>189700</v>
+      </c>
+      <c r="E60" s="3">
         <v>196500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>217300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>217500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>246800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>219500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>184600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>201700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,35 +3073,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>522300</v>
+      </c>
+      <c r="E61" s="3">
         <v>522000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>532200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>535500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>538700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>541900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2980,35 +3123,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E62" s="3">
         <v>125900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>133900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>142600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>182600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>200400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>190700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>200000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,8 +3173,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3074,8 +3223,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3121,8 +3273,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3168,35 +3323,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>832700</v>
+      </c>
+      <c r="E66" s="3">
         <v>844500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>883500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>895600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>968000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>961800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>375300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>406600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3215,8 +3373,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3234,8 +3395,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3281,8 +3443,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3328,8 +3493,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3375,8 +3543,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3422,29 +3593,32 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-100900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-18000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,8 +3631,8 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -3469,8 +3643,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3516,8 +3693,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3563,8 +3743,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3610,35 +3793,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>727800</v>
+      </c>
+      <c r="E76" s="3">
         <v>743600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>758600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>733800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>764600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>812500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1451400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1402300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,8 +3843,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3704,46 +3893,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3756,41 +3948,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-60700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-215600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3803,8 +3998,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3822,41 +4020,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E83" s="3">
         <v>32600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>30300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>32600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>95700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4068,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3916,8 +4118,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3963,8 +4168,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4010,8 +4218,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4057,8 +4268,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4104,41 +4318,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>42900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>91700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4151,8 +4368,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4170,41 +4390,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4217,8 +4438,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4264,8 +4488,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4311,41 +4538,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-22400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4588,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4377,8 +4610,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4395,11 +4629,11 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-540600</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4424,8 +4658,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4471,8 +4708,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4518,8 +4758,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4565,41 +4808,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-16500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>79800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-74300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4612,41 +4858,44 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4659,41 +4908,44 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>76300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4704,6 +4956,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZIMV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>ZIMV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,64 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,44 +735,47 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>202900</v>
+      </c>
+      <c r="E8" s="3">
         <v>224900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>225400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>229100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>214600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>234600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>235600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>261600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>753000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>274900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>637500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,44 +788,47 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E9" s="3">
         <v>74500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>71000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>81100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>85800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>125900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>259900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>92100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>220800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,44 +841,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E10" s="3">
         <v>150400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>154400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>154800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>155000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>153500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>149800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>135700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>493100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>416700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -884,8 +894,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -904,44 +917,45 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>43900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,8 +968,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,44 +1021,47 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3">
         <v>9800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>153200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,44 +1074,47 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E15" s="3">
         <v>20700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>20500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>19900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>65000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>63400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1104,8 +1127,11 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1121,44 +1147,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E17" s="3">
         <v>246700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>241600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>253500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>231300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>256100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>268200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>326900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>788200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>270300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>864700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,44 +1198,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-24400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-65300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-227200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,8 +1251,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1241,44 +1274,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1291,44 +1325,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E21" s="3">
         <v>10700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-31400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-126100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1341,44 +1378,47 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="E22" s="3">
         <v>9000</v>
       </c>
       <c r="F22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G22" s="3">
         <v>6400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1391,44 +1431,47 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-33100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-65400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-226500</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,44 +1484,47 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-23100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-17600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-31300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-11000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1491,8 +1537,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1541,44 +1590,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-60700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-215500</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,44 +1643,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-60700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-215600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1696,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1691,8 +1749,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1741,8 +1802,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1791,8 +1855,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1841,44 +1908,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1891,44 +1961,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-60700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-215600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,8 +2014,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1991,44 +2067,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-60700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-215600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,49 +2120,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2178,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2116,8 +2201,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2136,38 +2222,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E41" s="3">
         <v>66200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>66400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>130100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>104300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +2273,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,38 +2326,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E43" s="3">
         <v>168100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>175000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>177400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>172700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>188400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>180100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>164200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>170200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,38 +2379,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E44" s="3">
         <v>227500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>231100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>233900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>224200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>226500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>239300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>246800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>274700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,38 +2432,41 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E45" s="3">
         <v>45500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>31700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>37000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>33300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>25400</v>
       </c>
       <c r="J45" s="3">
         <v>25400</v>
       </c>
       <c r="K45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="L45" s="3">
         <v>22700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,38 +2485,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>497600</v>
+      </c>
+      <c r="E46" s="3">
         <v>507400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>504200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>537900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>546200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>573900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>549100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>536800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>491700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2538,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2486,38 +2591,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E48" s="3">
         <v>129700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>139300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>148400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>150300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>162900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>170500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>180200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>180700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2536,38 +2644,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>850600</v>
+      </c>
+      <c r="E49" s="3">
         <v>885800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>905200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>915000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>893900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>944600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>999000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1034000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1066700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +2697,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2636,8 +2750,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2686,38 +2803,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E52" s="3">
         <v>37700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>39400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>40800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>51200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>69800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2856,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2786,38 +2909,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1507900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1560500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1588100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1642100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1629400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1732600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1774300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1826700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1808900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +2962,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2856,8 +2985,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2876,38 +3006,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E57" s="3">
         <v>59400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>44000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>41100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>43000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2926,8 +3057,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,8 +3074,8 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>14000</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>14000</v>
@@ -2950,14 +3084,14 @@
         <v>14000</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>33000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,38 +3110,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E59" s="3">
         <v>130300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>143900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>173300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>162400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>189700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>166400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>139600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>128200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3026,38 +3163,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E60" s="3">
         <v>189700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>196500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>217300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>217500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>246800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>219500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>184600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>201700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3076,38 +3216,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>515500</v>
+      </c>
+      <c r="E61" s="3">
         <v>522300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>522000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>532200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>535500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>538700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>541900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>4900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3126,38 +3269,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E62" s="3">
         <v>120700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>125900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>133900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>142600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>182600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>200400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>190700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>200000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,8 +3322,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3226,8 +3375,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3428,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3326,38 +3481,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>797700</v>
+      </c>
+      <c r="E66" s="3">
         <v>832700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>844500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>883500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>895600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>968000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>961800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>375300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>406600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3376,8 +3534,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3396,8 +3557,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3446,8 +3608,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3496,8 +3661,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3546,8 +3714,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3596,32 +3767,35 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-100900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-18000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3634,8 +3808,8 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -3646,8 +3820,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3696,8 +3873,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3746,8 +3926,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3796,38 +3979,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>710200</v>
+      </c>
+      <c r="E76" s="3">
         <v>727800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>743600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>758600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>733800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>764600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>812500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1451400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1402300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3846,8 +4032,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3896,49 +4085,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3951,44 +4143,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-60700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-215600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4196,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4021,44 +4219,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E83" s="3">
         <v>32000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>32600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>30300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>32600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>95700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4071,8 +4270,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4121,8 +4323,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4171,8 +4376,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4221,8 +4429,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4271,8 +4482,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4321,44 +4535,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>91700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4371,8 +4588,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4391,44 +4611,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4441,8 +4662,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4491,8 +4715,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4541,44 +4768,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4591,8 +4821,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4611,8 +4844,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4632,11 +4866,11 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-540600</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4661,8 +4895,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4711,8 +4948,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4761,8 +5001,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4811,44 +5054,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-16500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>79800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-74300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4861,44 +5107,47 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4911,44 +5160,47 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>76300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4959,6 +5211,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
